--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655134.1080323291</v>
+        <v>631111.3871357888</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284149.5140982515</v>
+        <v>284149.5140982516</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>227.7664834517758</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C2" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D2" t="n">
-        <v>263.2420339516666</v>
+        <v>227.7664834517761</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>125.6384340685022</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>221.8454750355286</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.632598604764183</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C5" t="n">
-        <v>276.1565137023554</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G5" t="n">
-        <v>243.2386572690347</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>21.87262301774049</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>155.5032166200848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.203367682519136</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.6773952840985035</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>218.3734398702014</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>92.39479380343629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>163.8950372953896</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>16.60557849018839</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>61.61413745350008</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.275596830496642</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>401.3550844723776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>73.46100831328307</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.275596830496642</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,28 +1807,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>189.5968436493439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,16 +1895,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>194.8806712903676</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>25.08467608327368</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,19 +2087,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>284.5615160058697</v>
+        <v>101.8825978425034</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2284,25 +2284,25 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>160.4740936944298</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>284.5615160058697</v>
+        <v>279.0782658775866</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.31785343913925</v>
+        <v>85.87170836083649</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>57.70416378283653</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.461970681989245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.80540274016301</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>111.4208490092036</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>151.2756923576013</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>292.1380595743621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>334.9170046886393</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="34">
@@ -3193,22 +3193,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>150.5540262346242</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>12.27152410635492</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,10 +3518,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.2162536032051</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.66511249829282</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>184.5808806410311</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>302.7512766680231</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>67.17737911999795</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64.19839153612614</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,16 +3986,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>54.37924675511485</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4135,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>55.90301252244922</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>157.0044783406138</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.9009808048727</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="C2" t="n">
-        <v>556.9999364092498</v>
+        <v>255.2650026197982</v>
       </c>
       <c r="D2" t="n">
-        <v>291.098892013627</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="E2" t="n">
-        <v>291.098892013627</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="F2" t="n">
-        <v>291.098892013627</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="G2" t="n">
-        <v>291.098892013627</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="X2" t="n">
-        <v>1052.968135806666</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="Y2" t="n">
-        <v>1052.968135806666</v>
+        <v>787.0670914110444</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354.7498470027159</v>
+        <v>147.9668718762366</v>
       </c>
       <c r="C3" t="n">
-        <v>180.2968177215888</v>
+        <v>147.9668718762366</v>
       </c>
       <c r="D3" t="n">
-        <v>180.2968177215888</v>
+        <v>147.9668718762366</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>147.9668718762366</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>24.9501803568321</v>
+        <v>24.95018035683217</v>
       </c>
       <c r="K3" t="n">
-        <v>24.9501803568321</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516946</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M3" t="n">
-        <v>526.1633218638444</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="N3" t="n">
-        <v>786.7729354759944</v>
+        <v>524.9036321565288</v>
       </c>
       <c r="O3" t="n">
-        <v>1047.185999568486</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U3" t="n">
-        <v>730.8166842283167</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V3" t="n">
-        <v>730.8166842283167</v>
+        <v>817.8160275749249</v>
       </c>
       <c r="W3" t="n">
-        <v>730.8166842283167</v>
+        <v>563.5786708467233</v>
       </c>
       <c r="X3" t="n">
-        <v>522.9651840227839</v>
+        <v>355.7271706411905</v>
       </c>
       <c r="Y3" t="n">
-        <v>522.9651840227839</v>
+        <v>147.9668718762366</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H4" t="n">
-        <v>176.8194339304876</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>546.7341079359765</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="C5" t="n">
-        <v>267.7881344992538</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D5" t="n">
-        <v>267.7881344992538</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E5" t="n">
-        <v>267.7881344992538</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F5" t="n">
-        <v>267.7881344992538</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G5" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I5" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J5" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4607,10 +4607,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X5" t="n">
-        <v>825.6800813726991</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y5" t="n">
-        <v>825.6800813726991</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.09252109618843</v>
+        <v>377.8765639865492</v>
       </c>
       <c r="C6" t="n">
-        <v>22.09252109618843</v>
+        <v>203.4235347054222</v>
       </c>
       <c r="D6" t="n">
-        <v>22.09252109618843</v>
+        <v>203.4235347054222</v>
       </c>
       <c r="E6" t="n">
-        <v>22.09252109618843</v>
+        <v>44.18607969996671</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618843</v>
+        <v>44.18607969996671</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618843</v>
+        <v>44.18607969996671</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618843</v>
+        <v>44.18607969996671</v>
       </c>
       <c r="I6" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K6" t="n">
         <v>159.4923828364511</v>
@@ -4653,13 +4653,13 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M6" t="n">
-        <v>562.3310704112776</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N6" t="n">
-        <v>562.3310704112776</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O6" t="n">
-        <v>828.8278839945614</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P6" t="n">
         <v>1025.71200399185</v>
@@ -4668,28 +4668,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="U6" t="n">
-        <v>876.4074424435694</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="V6" t="n">
-        <v>641.2553342118267</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="W6" t="n">
-        <v>387.0179774836251</v>
+        <v>753.9434012121501</v>
       </c>
       <c r="X6" t="n">
-        <v>179.1664772780923</v>
+        <v>546.0919010066173</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.09252109618843</v>
+        <v>546.0919010066173</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="G7" t="n">
-        <v>29.36865006842999</v>
+        <v>22.776758756894</v>
       </c>
       <c r="H7" t="n">
-        <v>29.36865006842999</v>
+        <v>22.776758756894</v>
       </c>
       <c r="I7" t="n">
-        <v>29.36865006842999</v>
+        <v>22.776758756894</v>
       </c>
       <c r="J7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="K7" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L7" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M7" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N7" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O7" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P7" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1689.203741822952</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4957,10 +4957,10 @@
         <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1954.141365880777</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V11" t="n">
-        <v>2680.375779411972</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W11" t="n">
-        <v>2327.607124141857</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X11" t="n">
-        <v>1954.141365880777</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y11" t="n">
-        <v>1954.141365880777</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="12">
@@ -5100,22 +5100,22 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5133,10 +5133,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E13" t="n">
-        <v>432.0692320582253</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F13" t="n">
-        <v>285.179284560315</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G13" t="n">
-        <v>116.1794842986474</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>579.9823256406185</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>579.9823256406185</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y13" t="n">
-        <v>579.9823256406185</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2310.5492509541</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.586734013689</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="D14" t="n">
-        <v>1583.321035406938</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="E14" t="n">
-        <v>1197.532782808694</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="F14" t="n">
-        <v>786.5468780190865</v>
+        <v>546.1098286224635</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>128.1460205206504</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>128.1460205206504</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M14" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N14" t="n">
         <v>1836.345445977174</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5367,13 +5367,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5394,10 +5394,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T16" t="n">
-        <v>536.6170209242687</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U16" t="n">
-        <v>536.6170209242687</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V16" t="n">
-        <v>281.9325327183818</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W16" t="n">
-        <v>281.9325327183818</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785532</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889456</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2500.29992809866</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2246.538142736751</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>1915.475255393181</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>1562.706600123066</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>1189.240841861987</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>799.1015098861748</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5604,31 +5604,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>79.28103847013585</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5695,28 +5695,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W19" t="n">
-        <v>438.7118141694736</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X19" t="n">
-        <v>210.7222632714563</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1577.945354755378</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.982837814967</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D20" t="n">
-        <v>850.7171392082162</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F20" t="n">
+        <v>534.603677789272</v>
+      </c>
+      <c r="G20" t="n">
+        <v>534.603677789272</v>
+      </c>
+      <c r="H20" t="n">
+        <v>207.4089578252748</v>
+      </c>
+      <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="G20" t="n">
-        <v>53.94298182036445</v>
-      </c>
-      <c r="H20" t="n">
-        <v>53.94298182036445</v>
-      </c>
-      <c r="I20" t="n">
-        <v>53.94298182036425</v>
-      </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X20" t="n">
-        <v>2354.684526795312</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y20" t="n">
-        <v>1964.5451948195</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5829,43 +5829,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R22" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S22" t="n">
-        <v>2667.732171871844</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T22" t="n">
-        <v>2667.732171871844</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U22" t="n">
-        <v>2667.732171871844</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V22" t="n">
-        <v>2413.047683665958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W22" t="n">
-        <v>2250.95263953017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5993,7 +5993,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6020,19 +6020,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>1753.692722656504</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2066.718496146435</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>2469.159540120205</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>2248.366960976675</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.944160717209</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C26" t="n">
-        <v>1177.981643776797</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.981643776797</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1933911785532</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>381.2074863889456</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6227,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6257,19 +6257,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2638.862056894145</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2638.862056894145</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2286.093401624031</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1912.627643362951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.544000781331</v>
+        <v>1522.488311387139</v>
       </c>
     </row>
     <row r="27">
@@ -6318,10 +6318,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6406,25 +6406,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>352.67413830922</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>63.50052796378793</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V28" t="n">
-        <v>63.50052796378793</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>63.50052796378793</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>63.50052796378793</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
         <v>53.94298182036445</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1135.888471323017</v>
+        <v>935.7408973472311</v>
       </c>
       <c r="C29" t="n">
-        <v>766.9259543826058</v>
+        <v>935.7408973472311</v>
       </c>
       <c r="D29" t="n">
-        <v>766.9259543826058</v>
+        <v>577.4751987404807</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6464,7 +6464,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224073</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>1881.118241157406</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W29" t="n">
-        <v>1528.349585887292</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X29" t="n">
-        <v>1154.883827626212</v>
+        <v>1322.340737411353</v>
       </c>
       <c r="Y29" t="n">
-        <v>1154.883827626212</v>
+        <v>1322.340737411353</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D31" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E31" t="n">
-        <v>709.5665374816298</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="F31" t="n">
-        <v>562.6765899837194</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="G31" t="n">
         <v>393.6767897220518</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1547.282842550966</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>1189.017143944216</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>803.2288913459713</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>392.2429865563637</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6701,16 +6701,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="33">
@@ -6777,43 +6777,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="D34" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="E34" t="n">
-        <v>2678.586644293418</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F34" t="n">
-        <v>2531.696696795508</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.69689653384</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.94852396637</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
         <v>2022.963088632153</v>
@@ -6886,22 +6886,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.766129712456</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>863.1126181035243</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C35" t="n">
-        <v>863.1126181035243</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D35" t="n">
-        <v>863.1126181035243</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E35" t="n">
-        <v>477.32436550528</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F35" t="n">
-        <v>66.33846071567245</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6935,13 +6935,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6971,16 +6971,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1639.851790143458</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1249.712458167646</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7053,10 +7053,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7129,16 +7129,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.1126181035243</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C38" t="n">
-        <v>863.1126181035243</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D38" t="n">
-        <v>863.1126181035243</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E38" t="n">
-        <v>477.32436550528</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F38" t="n">
-        <v>477.32436550528</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G38" t="n">
-        <v>477.32436550528</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7208,16 +7208,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X38" t="n">
-        <v>1639.851790143458</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.712458167646</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>506.0980231475335</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>337.1618402196266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>337.1618402196266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>337.1618402196266</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>720.3864463293708</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>506.0980231475335</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>506.0980231475335</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>506.0980231475335</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>506.0980231475335</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>506.0980231475335</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>506.0980231475335</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0980231475335</v>
+        <v>2179.742370083244</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>609.3508327416157</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>240.388315801204</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7442,19 +7442,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1759.555763042629</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>1386.090004781549</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>995.9506728057374</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7467,46 +7467,46 @@
         <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C43" t="n">
-        <v>559.1928012785273</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D43" t="n">
-        <v>409.0761618661916</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E43" t="n">
-        <v>261.1630682837985</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F43" t="n">
-        <v>114.2731207858881</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>121.7989203254129</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7606,13 +7606,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1731.411330760289</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C44" t="n">
-        <v>1362.448813819877</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D44" t="n">
-        <v>1004.183115213127</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E44" t="n">
-        <v>618.3948626148824</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.220558942349</v>
       </c>
       <c r="V44" t="n">
-        <v>2169.72394915887</v>
+        <v>2311.157671598778</v>
       </c>
       <c r="W44" t="n">
-        <v>2169.72394915887</v>
+        <v>1958.389016328664</v>
       </c>
       <c r="X44" t="n">
-        <v>1796.25819089779</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="Y44" t="n">
-        <v>1796.25819089779</v>
+        <v>1584.923258067584</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
@@ -7749,19 +7749,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.3364050629041</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C46" t="n">
-        <v>507.3364050629041</v>
+        <v>110.4106712369798</v>
       </c>
       <c r="D46" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>359.423311480511</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>212.5333639826006</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7846,10 +7846,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629041</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093847</v>
+        <v>256.9443198746411</v>
       </c>
       <c r="N3" t="n">
-        <v>381.709495280812</v>
+        <v>118.4674613291452</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>130.3625277915346</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>281.3133266100198</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>270.015839604924</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154.9673582117048</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C2" t="n">
-        <v>102.030857819341</v>
+        <v>102.0308578193407</v>
       </c>
       <c r="D2" t="n">
-        <v>91.44100766901636</v>
+        <v>126.9165581689069</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,7 +22562,7 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921177</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
         <v>206.9091621893709</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268022</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,19 +22623,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>19.43077832488171</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -22644,7 +22644,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
@@ -22680,19 +22680,19 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>4.092650434688665</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22720,16 +22720,16 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>156.2256052425495</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>63.45830508392203</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -22784,19 +22784,19 @@
         <v>106.5773279611251</v>
       </c>
       <c r="C5" t="n">
-        <v>89.11637806865212</v>
+        <v>122.0342345019729</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G5" t="n">
-        <v>171.9232912582848</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>93.57458697611361</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22881,7 +22881,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268741</v>
+        <v>64.9304542049469</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -22917,10 +22917,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>50.17947915721956</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -22963,10 +22963,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>81.69088875197926</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K7" t="n">
-        <v>14.93225064571201</v>
+        <v>14.2548553616135</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>222.9160118599466</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>164.3604017932792</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>262.2882478172467</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23039,7 +23039,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,10 +23066,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>10.52067551358192</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23315,13 +23315,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>311.1466799799465</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>94.55675138829505</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>78.47030793157818</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23671,10 +23671,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,28 +23695,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>35.43826180874041</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,25 +23729,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23783,16 +23783,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>21.5676490672902</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>142.2251261757772</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23935,7 +23935,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,19 +23975,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>85.16958467259929</v>
+        <v>267.8485028359656</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>126.0489046421612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,16 +24260,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>85.16958467259929</v>
+        <v>90.65283480088243</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>123.9289676594886</v>
+        <v>81.37511273779134</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24424,13 +24424,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24497,13 +24497,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>193.5200037254528</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.1226826701055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>363.9284389233176</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>270.5095210630582</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>16.03410990144963</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>89.79231049789968</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>78.86716533215571</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25081,22 +25081,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>101.5836170892038</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>401.51264591444</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25211,13 +25211,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25369,13 +25369,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,10 +25391,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25406,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>56.70651916115207</v>
+        <v>296.9788778378464</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535694</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25567,7 +25567,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853701</v>
@@ -25594,10 +25594,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>139.000079481865</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25609,10 +25609,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>170.1021609796518</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>111.0328933527719</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,16 +25682,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>88.9935097217972</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>318.5354501273545</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25874,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,22 +25910,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>196.8449207531744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>92.71246049576314</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>10.30532391843713</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>492587.8800625087</v>
+        <v>492587.880062509</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>796086.3337174791</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796086.3337174788</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796086.3337174791</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796086.3337174791</v>
+        <v>796086.333717479</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796086.333717479</v>
+        <v>796086.3337174788</v>
       </c>
     </row>
     <row r="14">
@@ -26326,10 +26326,10 @@
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141815</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
@@ -26338,16 +26338,16 @@
         <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
+        <v>260237.3490141817</v>
+      </c>
+      <c r="L2" t="n">
         <v>260237.3490141816</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>260237.3490141815</v>
+      </c>
+      <c r="N2" t="n">
         <v>260237.3490141817</v>
-      </c>
-      <c r="M2" t="n">
-        <v>260237.3490141816</v>
-      </c>
-      <c r="N2" t="n">
-        <v>260237.3490141816</v>
       </c>
       <c r="O2" t="n">
         <v>260237.3490141816</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749499</v>
       </c>
       <c r="C3" t="n">
-        <v>15106.6875843893</v>
+        <v>15106.68758438904</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.622153688</v>
+        <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>68875.69873124993</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475282</v>
+        <v>3323.773824475224</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>100763.3119392803</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39350.15555474616</v>
+        <v>42100.10620798599</v>
       </c>
       <c r="C4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="D4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="E4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="F4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="I4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="K4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="P4" t="n">
-        <v>41896.11844317794</v>
+        <v>44802.65617556861</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="C5" t="n">
         <v>51181.37951678014</v>
@@ -26482,7 +26482,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43872.88231003119</v>
+        <v>-46622.83296327138</v>
       </c>
       <c r="C6" t="n">
-        <v>53759.64090966973</v>
+        <v>51005.76647160381</v>
       </c>
       <c r="D6" t="n">
-        <v>-281701.4696460938</v>
+        <v>-284608.0073784842</v>
       </c>
       <c r="E6" t="n">
-        <v>169109.7525075942</v>
+        <v>166203.2147752036</v>
       </c>
       <c r="F6" t="n">
-        <v>169109.7525075942</v>
+        <v>166203.2147752035</v>
       </c>
       <c r="G6" t="n">
-        <v>169109.7525075941</v>
+        <v>166203.2147752036</v>
       </c>
       <c r="H6" t="n">
-        <v>169109.7525075944</v>
+        <v>166203.2147752036</v>
       </c>
       <c r="I6" t="n">
-        <v>169109.7525075942</v>
+        <v>166203.2147752036</v>
       </c>
       <c r="J6" t="n">
-        <v>100234.0537763443</v>
+        <v>97327.51604395363</v>
       </c>
       <c r="K6" t="n">
-        <v>165785.978683119</v>
+        <v>162879.4409507284</v>
       </c>
       <c r="L6" t="n">
-        <v>68346.44056831388</v>
+        <v>65439.90283592319</v>
       </c>
       <c r="M6" t="n">
-        <v>169109.7525075942</v>
+        <v>166203.2147752035</v>
       </c>
       <c r="N6" t="n">
-        <v>169109.7525075942</v>
+        <v>166203.2147752037</v>
       </c>
       <c r="O6" t="n">
-        <v>169109.7525075942</v>
+        <v>166203.2147752036</v>
       </c>
       <c r="P6" t="n">
-        <v>169109.7525075942</v>
+        <v>166203.2147752036</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>12.00787803233591</v>
+        <v>12.00787803233572</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>342.7224034979612</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>12.91447975068883</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="D4" t="n">
-        <v>398.1307590522002</v>
+        <v>398.1307590522</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068883</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>398.1307590522</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068883</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522002</v>
+        <v>398.1307590522</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H5" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I5" t="n">
-        <v>5.427767452760113</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L5" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M5" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N5" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O5" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P5" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R5" t="n">
-        <v>8.84383625587037</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S5" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H6" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I6" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J6" t="n">
-        <v>7.116914878779982</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K6" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L6" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M6" t="n">
-        <v>19.08658709192328</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N6" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O6" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P6" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R6" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S6" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J7" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K7" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L7" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M7" t="n">
-        <v>9.899534402948808</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N7" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O7" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P7" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R7" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S7" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988654</v>
+        <v>3.930118828988703</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>127.3525795169231</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P3" t="n">
-        <v>5.840541654727375</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P5" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315784</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>158.2658797799247</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891755</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.71116244199195</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M7" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N7" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O7" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35662,7 +35662,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35735,7 +35735,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245897</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35972,7 +35972,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,7 +36209,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245897</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36686,13 +36686,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37163,7 +37163,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
